--- a/data/past.xlsx
+++ b/data/past.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>data/2023/feedback2023.html</t>
+  </si>
+  <si>
+    <t>data/2024/9th EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>/data/2024/slides.html</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +584,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>

--- a/data/past.xlsx
+++ b/data/past.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D6D2D8-6CD6-4B66-BBBB-718636BD6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -112,12 +113,15 @@
   </si>
   <si>
     <t>/data/2024/slides.html</t>
+  </si>
+  <si>
+    <t>data/2024/analysis2024.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,23 +443,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -472,7 +476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -483,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -494,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -505,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -519,7 +523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -533,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -550,7 +554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -567,7 +571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -584,7 +588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -594,10 +598,13 @@
       <c r="C10" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/past.xlsx
+++ b/data/past.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D6D2D8-6CD6-4B66-BBBB-718636BD6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BE7FF8-A1A3-44DF-B443-E2A1E328BC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>data/2024/analysis2024.html</t>
+  </si>
+  <si>
+    <t>data/2024/10th EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>/data/2025/slides.html</t>
+  </si>
+  <si>
+    <t>data/2025/analysis2025.html</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,6 +611,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
